--- a/events/Horashim_2022/רשימות_זינוק_למזניקים.xlsx
+++ b/events/Horashim_2022/רשימות_זינוק_למזניקים.xlsx
@@ -8,17 +8,17 @@
   </bookViews>
   <sheets>
     <sheet name="נרשמים מראש" sheetId="1" r:id="rId1"/>
-    <sheet name="ארוך" sheetId="2" r:id="rId2"/>
-    <sheet name="קצר" sheetId="3" r:id="rId3"/>
-    <sheet name="קצרצר" sheetId="4" r:id="rId4"/>
-    <sheet name="בינוני" sheetId="5" r:id="rId5"/>
+    <sheet name="קצר" sheetId="2" r:id="rId2"/>
+    <sheet name="קצרצר" sheetId="3" r:id="rId3"/>
+    <sheet name="בינוני" sheetId="4" r:id="rId4"/>
+    <sheet name="ארוך" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1003" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1145" uniqueCount="332">
   <si>
     <t>מס' חבר</t>
   </si>
@@ -62,18 +62,57 @@
     <t>אורי אילון</t>
   </si>
   <si>
+    <t>4008</t>
+  </si>
+  <si>
+    <t>איגנטוב אידה</t>
+  </si>
+  <si>
+    <t>חבל מודיעין</t>
+  </si>
+  <si>
+    <t>בינוני</t>
+  </si>
+  <si>
+    <t>2071003</t>
+  </si>
+  <si>
+    <t>054-2344862</t>
+  </si>
+  <si>
+    <t>4006</t>
+  </si>
+  <si>
+    <t>איגנטוב אנדרי</t>
+  </si>
+  <si>
+    <t>2071046</t>
+  </si>
+  <si>
+    <t>054-6998499</t>
+  </si>
+  <si>
+    <t>4007</t>
+  </si>
+  <si>
+    <t>איגנטוב אנה</t>
+  </si>
+  <si>
+    <t>קצר</t>
+  </si>
+  <si>
+    <t>2071058</t>
+  </si>
+  <si>
+    <t>542206373</t>
+  </si>
+  <si>
     <t>4165</t>
   </si>
   <si>
     <t>אלוש רות</t>
   </si>
   <si>
-    <t>חבל מודיעין</t>
-  </si>
-  <si>
-    <t>קצר</t>
-  </si>
-  <si>
     <t>2071109</t>
   </si>
   <si>
@@ -113,9 +152,6 @@
     <t>גולדהכט גיורא</t>
   </si>
   <si>
-    <t>בינוני</t>
-  </si>
-  <si>
     <t>9471203</t>
   </si>
   <si>
@@ -161,6 +197,21 @@
     <t>052-8375625</t>
   </si>
   <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>דביר יונתן</t>
+  </si>
+  <si>
+    <t>ראשון לציון</t>
+  </si>
+  <si>
+    <t>2071154</t>
+  </si>
+  <si>
+    <t>544710406</t>
+  </si>
+  <si>
     <t>7</t>
   </si>
   <si>
@@ -221,6 +272,57 @@
     <t>050-8800048</t>
   </si>
   <si>
+    <t>5862</t>
+  </si>
+  <si>
+    <t>חוחלובה טטיאנה</t>
+  </si>
+  <si>
+    <t>2071601</t>
+  </si>
+  <si>
+    <t>054-9949571</t>
+  </si>
+  <si>
+    <t>5178</t>
+  </si>
+  <si>
+    <t>טל אביב</t>
+  </si>
+  <si>
+    <t>אסא תל אביב</t>
+  </si>
+  <si>
+    <t>2071131</t>
+  </si>
+  <si>
+    <t>054-7864656</t>
+  </si>
+  <si>
+    <t>1755</t>
+  </si>
+  <si>
+    <t>יודפת עופר</t>
+  </si>
+  <si>
+    <t>2071017</t>
+  </si>
+  <si>
+    <t>052-3351212</t>
+  </si>
+  <si>
+    <t>883</t>
+  </si>
+  <si>
+    <t>כספי שי</t>
+  </si>
+  <si>
+    <t>2083331</t>
+  </si>
+  <si>
+    <t>054-7236295</t>
+  </si>
+  <si>
     <t>822</t>
   </si>
   <si>
@@ -305,6 +407,18 @@
     <t>547906067</t>
   </si>
   <si>
+    <t>5179</t>
+  </si>
+  <si>
+    <t>מסינג ענת סיפורים</t>
+  </si>
+  <si>
+    <t>2071119</t>
+  </si>
+  <si>
+    <t>052-6867272</t>
+  </si>
+  <si>
     <t>273</t>
   </si>
   <si>
@@ -329,6 +443,18 @@
     <t>054-5390821</t>
   </si>
   <si>
+    <t>4891</t>
+  </si>
+  <si>
+    <t>נתיב רות</t>
+  </si>
+  <si>
+    <t>2071179</t>
+  </si>
+  <si>
+    <t>054-4683928</t>
+  </si>
+  <si>
     <t>7207</t>
   </si>
   <si>
@@ -338,6 +464,15 @@
     <t>054-3291072</t>
   </si>
   <si>
+    <t>27931617</t>
+  </si>
+  <si>
+    <t>פילו בועז</t>
+  </si>
+  <si>
+    <t>543348646</t>
+  </si>
+  <si>
     <t>57967960</t>
   </si>
   <si>
@@ -353,9 +488,6 @@
     <t>פלוטקין רון</t>
   </si>
   <si>
-    <t>אסא תל אביב</t>
-  </si>
-  <si>
     <t>2300229</t>
   </si>
   <si>
@@ -420,6 +552,18 @@
   </si>
   <si>
     <t>054-6697140</t>
+  </si>
+  <si>
+    <t>5723</t>
+  </si>
+  <si>
+    <t>שפר שחר</t>
+  </si>
+  <si>
+    <t>1202015</t>
+  </si>
+  <si>
+    <t>058-4741993</t>
   </si>
   <si>
     <t>מס' סידורי</t>
@@ -1228,7 +1372,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:G45"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1342,36 +1486,38 @@
         <v>21</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="2" t="s">
+      <c r="F7" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="2"/>
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:7">
@@ -1382,31 +1528,31 @@
         <v>30</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="D9" s="2" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>36</v>
@@ -1427,14 +1573,12 @@
         <v>40</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="2" t="s">
         <v>41</v>
       </c>
+      <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:7">
@@ -1445,73 +1589,73 @@
         <v>43</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="D11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="F11" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>46</v>
       </c>
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>40</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="E12" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="D13" s="2" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="E13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>9</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>57</v>
@@ -1529,394 +1673,644 @@
         <v>60</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G15" s="2"/>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G17" s="2"/>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G18" s="2"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G19" s="2"/>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G20" s="2"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G21" s="2"/>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>22</v>
+        <v>90</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G22" s="2"/>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G23" s="2"/>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G24" s="2"/>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G25" s="2"/>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>10</v>
+        <v>107</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="G26" s="2"/>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C27" s="2"/>
+        <v>110</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="D27" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>10</v>
+        <v>111</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="G27" s="2"/>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>111</v>
+        <v>16</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="G28" s="2"/>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>111</v>
+        <v>40</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="G29" s="2"/>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="G30" s="2"/>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G31" s="2"/>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>27</v>
+        <v>90</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="G32" s="2"/>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D33" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="G33" s="2"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="G34" s="2"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="G35" s="2"/>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="G36" s="2"/>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="G37" s="2"/>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="G38" s="2"/>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D39" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E33" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="G33" s="2"/>
+      <c r="E39" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G39" s="2"/>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="G40" s="2"/>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="G41" s="2"/>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="G42" s="2"/>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="G43" s="2"/>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="G44" s="2"/>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="G45" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1943,7 +2337,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>134</v>
+        <v>182</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1979,361 +2373,459 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
-        <v>135</v>
+        <v>183</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="2"/>
+        <v>25</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="E3" s="2" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
-        <v>136</v>
+        <v>184</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="2"/>
+        <v>30</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="E4" s="2" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
-        <v>137</v>
+        <v>185</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="F5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="2" t="s">
-        <v>138</v>
+        <v>186</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="2" t="s">
-        <v>139</v>
+        <v>187</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="2" t="s">
-        <v>140</v>
+        <v>188</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="2" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="2" t="s">
-        <v>141</v>
+        <v>189</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="2" t="s">
-        <v>142</v>
+        <v>190</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>111</v>
+        <v>40</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="2" t="s">
-        <v>143</v>
+        <v>191</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="2" t="s">
-        <v>144</v>
+        <v>192</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="D13" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13" s="2" t="s">
+      <c r="G13" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>133</v>
       </c>
       <c r="H13" s="2"/>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
+        <v>193</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>136</v>
+      </c>
       <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
+        <v>194</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>140</v>
+      </c>
       <c r="H15" s="2"/>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
+        <v>195</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>144</v>
+      </c>
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
+        <v>196</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>147</v>
+      </c>
       <c r="H17" s="2"/>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
       <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
+      <c r="E18" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>150</v>
+      </c>
       <c r="H18" s="2"/>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
+        <v>198</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>152</v>
+      </c>
       <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
+      <c r="E19" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>153</v>
+      </c>
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
+        <v>199</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="H20" s="2"/>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
+        <v>200</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>173</v>
+      </c>
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="2" t="s">
-        <v>153</v>
+        <v>201</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -2345,7 +2837,7 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="2" t="s">
-        <v>154</v>
+        <v>202</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -2357,7 +2849,7 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="2" t="s">
-        <v>155</v>
+        <v>203</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -2369,7 +2861,7 @@
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="2" t="s">
-        <v>156</v>
+        <v>204</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -2381,7 +2873,7 @@
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="2" t="s">
-        <v>157</v>
+        <v>205</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -2393,7 +2885,7 @@
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="2" t="s">
-        <v>158</v>
+        <v>206</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -2405,7 +2897,7 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="2" t="s">
-        <v>159</v>
+        <v>207</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -2417,7 +2909,7 @@
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="2" t="s">
-        <v>160</v>
+        <v>208</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -2429,7 +2921,7 @@
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="2" t="s">
-        <v>161</v>
+        <v>209</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -2441,7 +2933,7 @@
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="2" t="s">
-        <v>162</v>
+        <v>210</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -2453,7 +2945,7 @@
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="2" t="s">
-        <v>163</v>
+        <v>211</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -2465,7 +2957,7 @@
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="2" t="s">
-        <v>164</v>
+        <v>212</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -2477,7 +2969,7 @@
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="2" t="s">
-        <v>165</v>
+        <v>213</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -2489,7 +2981,7 @@
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="2" t="s">
-        <v>166</v>
+        <v>214</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -2501,7 +2993,7 @@
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="2" t="s">
-        <v>167</v>
+        <v>215</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -2513,7 +3005,7 @@
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="2" t="s">
-        <v>168</v>
+        <v>216</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -2525,7 +3017,7 @@
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="2" t="s">
-        <v>169</v>
+        <v>217</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -2537,7 +3029,7 @@
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="2" t="s">
-        <v>170</v>
+        <v>218</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -2549,7 +3041,7 @@
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="2" t="s">
-        <v>171</v>
+        <v>219</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -2561,7 +3053,7 @@
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="2" t="s">
-        <v>172</v>
+        <v>220</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -2573,7 +3065,7 @@
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="2" t="s">
-        <v>173</v>
+        <v>221</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -2585,7 +3077,7 @@
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="2" t="s">
-        <v>174</v>
+        <v>222</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -2597,7 +3089,7 @@
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="2" t="s">
-        <v>175</v>
+        <v>223</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -2609,7 +3101,7 @@
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="2" t="s">
-        <v>176</v>
+        <v>224</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -2621,7 +3113,7 @@
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="2" t="s">
-        <v>177</v>
+        <v>225</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -2633,7 +3125,7 @@
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="2" t="s">
-        <v>178</v>
+        <v>226</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -2645,7 +3137,7 @@
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="2" t="s">
-        <v>179</v>
+        <v>227</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -2657,7 +3149,7 @@
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="2" t="s">
-        <v>180</v>
+        <v>228</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -2669,7 +3161,7 @@
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="2" t="s">
-        <v>181</v>
+        <v>229</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -2681,7 +3173,7 @@
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="2" t="s">
-        <v>182</v>
+        <v>230</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -2693,7 +3185,7 @@
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="2" t="s">
-        <v>183</v>
+        <v>231</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -2705,7 +3197,7 @@
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="2" t="s">
-        <v>184</v>
+        <v>232</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -2717,7 +3209,7 @@
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="2" t="s">
-        <v>185</v>
+        <v>233</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -2729,7 +3221,7 @@
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="2" t="s">
-        <v>186</v>
+        <v>234</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -2741,7 +3233,7 @@
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="2" t="s">
-        <v>187</v>
+        <v>235</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -2753,7 +3245,7 @@
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="2" t="s">
-        <v>188</v>
+        <v>236</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -2765,7 +3257,7 @@
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="2" t="s">
-        <v>189</v>
+        <v>237</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -2777,7 +3269,7 @@
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="2" t="s">
-        <v>190</v>
+        <v>238</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -2789,7 +3281,7 @@
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="2" t="s">
-        <v>191</v>
+        <v>239</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -2801,7 +3293,7 @@
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="2" t="s">
-        <v>192</v>
+        <v>240</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -2813,7 +3305,7 @@
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="2" t="s">
-        <v>193</v>
+        <v>241</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -2825,7 +3317,7 @@
     </row>
     <row r="63" spans="1:8">
       <c r="A63" s="2" t="s">
-        <v>194</v>
+        <v>242</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -2837,7 +3329,7 @@
     </row>
     <row r="64" spans="1:8">
       <c r="A64" s="2" t="s">
-        <v>195</v>
+        <v>243</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -2849,7 +3341,7 @@
     </row>
     <row r="65" spans="1:8">
       <c r="A65" s="2" t="s">
-        <v>196</v>
+        <v>244</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -2861,7 +3353,7 @@
     </row>
     <row r="66" spans="1:8">
       <c r="A66" s="2" t="s">
-        <v>197</v>
+        <v>245</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -2873,7 +3365,7 @@
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="2" t="s">
-        <v>198</v>
+        <v>246</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -2885,7 +3377,7 @@
     </row>
     <row r="68" spans="1:8">
       <c r="A68" s="2" t="s">
-        <v>199</v>
+        <v>247</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -2897,7 +3389,7 @@
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="2" t="s">
-        <v>200</v>
+        <v>248</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -2909,7 +3401,7 @@
     </row>
     <row r="70" spans="1:8">
       <c r="A70" s="2" t="s">
-        <v>201</v>
+        <v>249</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -2921,7 +3413,7 @@
     </row>
     <row r="71" spans="1:8">
       <c r="A71" s="2" t="s">
-        <v>202</v>
+        <v>250</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -2933,7 +3425,7 @@
     </row>
     <row r="72" spans="1:8">
       <c r="A72" s="2" t="s">
-        <v>203</v>
+        <v>251</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -2945,7 +3437,7 @@
     </row>
     <row r="73" spans="1:8">
       <c r="A73" s="2" t="s">
-        <v>204</v>
+        <v>252</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -2957,7 +3449,7 @@
     </row>
     <row r="74" spans="1:8">
       <c r="A74" s="2" t="s">
-        <v>205</v>
+        <v>253</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -2969,7 +3461,7 @@
     </row>
     <row r="75" spans="1:8">
       <c r="A75" s="2" t="s">
-        <v>206</v>
+        <v>254</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -2981,7 +3473,7 @@
     </row>
     <row r="76" spans="1:8">
       <c r="A76" s="2" t="s">
-        <v>207</v>
+        <v>255</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -2993,7 +3485,7 @@
     </row>
     <row r="77" spans="1:8">
       <c r="A77" s="2" t="s">
-        <v>208</v>
+        <v>256</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -3005,7 +3497,7 @@
     </row>
     <row r="78" spans="1:8">
       <c r="A78" s="2" t="s">
-        <v>209</v>
+        <v>257</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -3017,7 +3509,7 @@
     </row>
     <row r="79" spans="1:8">
       <c r="A79" s="2" t="s">
-        <v>210</v>
+        <v>258</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -3029,7 +3521,7 @@
     </row>
     <row r="80" spans="1:8">
       <c r="A80" s="2" t="s">
-        <v>211</v>
+        <v>259</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -3041,7 +3533,7 @@
     </row>
     <row r="81" spans="1:8">
       <c r="A81" s="2" t="s">
-        <v>212</v>
+        <v>260</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -3053,7 +3545,7 @@
     </row>
     <row r="82" spans="1:8">
       <c r="A82" s="2" t="s">
-        <v>213</v>
+        <v>261</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -3065,7 +3557,7 @@
     </row>
     <row r="83" spans="1:8">
       <c r="A83" s="2" t="s">
-        <v>214</v>
+        <v>262</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -3077,7 +3569,7 @@
     </row>
     <row r="84" spans="1:8">
       <c r="A84" s="2" t="s">
-        <v>215</v>
+        <v>263</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -3089,7 +3581,7 @@
     </row>
     <row r="85" spans="1:8">
       <c r="A85" s="2" t="s">
-        <v>216</v>
+        <v>264</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -3101,7 +3593,7 @@
     </row>
     <row r="86" spans="1:8">
       <c r="A86" s="2" t="s">
-        <v>217</v>
+        <v>265</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -3113,7 +3605,7 @@
     </row>
     <row r="87" spans="1:8">
       <c r="A87" s="2" t="s">
-        <v>218</v>
+        <v>266</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -3125,7 +3617,7 @@
     </row>
     <row r="88" spans="1:8">
       <c r="A88" s="2" t="s">
-        <v>219</v>
+        <v>267</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -3137,7 +3629,7 @@
     </row>
     <row r="89" spans="1:8">
       <c r="A89" s="2" t="s">
-        <v>220</v>
+        <v>268</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -3149,7 +3641,7 @@
     </row>
     <row r="90" spans="1:8">
       <c r="A90" s="2" t="s">
-        <v>221</v>
+        <v>269</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -3161,7 +3653,7 @@
     </row>
     <row r="91" spans="1:8">
       <c r="A91" s="2" t="s">
-        <v>222</v>
+        <v>270</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -3173,7 +3665,7 @@
     </row>
     <row r="92" spans="1:8">
       <c r="A92" s="2" t="s">
-        <v>223</v>
+        <v>271</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -3185,7 +3677,7 @@
     </row>
     <row r="93" spans="1:8">
       <c r="A93" s="2" t="s">
-        <v>224</v>
+        <v>272</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -3197,7 +3689,7 @@
     </row>
     <row r="94" spans="1:8">
       <c r="A94" s="2" t="s">
-        <v>225</v>
+        <v>273</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -3209,7 +3701,7 @@
     </row>
     <row r="95" spans="1:8">
       <c r="A95" s="2" t="s">
-        <v>226</v>
+        <v>274</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -3221,7 +3713,7 @@
     </row>
     <row r="96" spans="1:8">
       <c r="A96" s="2" t="s">
-        <v>227</v>
+        <v>275</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -3233,7 +3725,7 @@
     </row>
     <row r="97" spans="1:8">
       <c r="A97" s="2" t="s">
-        <v>228</v>
+        <v>276</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -3245,7 +3737,7 @@
     </row>
     <row r="98" spans="1:8">
       <c r="A98" s="2" t="s">
-        <v>229</v>
+        <v>277</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -3257,7 +3749,7 @@
     </row>
     <row r="99" spans="1:8">
       <c r="A99" s="2" t="s">
-        <v>230</v>
+        <v>278</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -3269,7 +3761,7 @@
     </row>
     <row r="100" spans="1:8">
       <c r="A100" s="2" t="s">
-        <v>231</v>
+        <v>279</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -3281,7 +3773,7 @@
     </row>
     <row r="101" spans="1:8">
       <c r="A101" s="2" t="s">
-        <v>232</v>
+        <v>280</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -3293,7 +3785,7 @@
     </row>
     <row r="102" spans="1:8">
       <c r="A102" s="2" t="s">
-        <v>233</v>
+        <v>281</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -3305,7 +3797,7 @@
     </row>
     <row r="103" spans="1:8">
       <c r="A103" s="2" t="s">
-        <v>234</v>
+        <v>282</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -3317,7 +3809,7 @@
     </row>
     <row r="104" spans="1:8">
       <c r="A104" s="2" t="s">
-        <v>235</v>
+        <v>283</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -3329,7 +3821,7 @@
     </row>
     <row r="105" spans="1:8">
       <c r="A105" s="2" t="s">
-        <v>236</v>
+        <v>284</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -3341,7 +3833,7 @@
     </row>
     <row r="106" spans="1:8">
       <c r="A106" s="2" t="s">
-        <v>237</v>
+        <v>285</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -3353,7 +3845,7 @@
     </row>
     <row r="107" spans="1:8">
       <c r="A107" s="2" t="s">
-        <v>238</v>
+        <v>286</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -3365,7 +3857,7 @@
     </row>
     <row r="108" spans="1:8">
       <c r="A108" s="2" t="s">
-        <v>239</v>
+        <v>287</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -3377,7 +3869,7 @@
     </row>
     <row r="109" spans="1:8">
       <c r="A109" s="2" t="s">
-        <v>240</v>
+        <v>288</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -3389,7 +3881,7 @@
     </row>
     <row r="110" spans="1:8">
       <c r="A110" s="2" t="s">
-        <v>241</v>
+        <v>289</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -3401,7 +3893,7 @@
     </row>
     <row r="111" spans="1:8">
       <c r="A111" s="2" t="s">
-        <v>242</v>
+        <v>290</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -3413,7 +3905,7 @@
     </row>
     <row r="112" spans="1:8">
       <c r="A112" s="2" t="s">
-        <v>243</v>
+        <v>291</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -3425,7 +3917,7 @@
     </row>
     <row r="113" spans="1:8">
       <c r="A113" s="2" t="s">
-        <v>244</v>
+        <v>292</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -3437,7 +3929,7 @@
     </row>
     <row r="114" spans="1:8">
       <c r="A114" s="2" t="s">
-        <v>245</v>
+        <v>293</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -3449,7 +3941,7 @@
     </row>
     <row r="115" spans="1:8">
       <c r="A115" s="2" t="s">
-        <v>246</v>
+        <v>294</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -3461,7 +3953,7 @@
     </row>
     <row r="116" spans="1:8">
       <c r="A116" s="2" t="s">
-        <v>247</v>
+        <v>295</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -3473,7 +3965,7 @@
     </row>
     <row r="117" spans="1:8">
       <c r="A117" s="2" t="s">
-        <v>248</v>
+        <v>296</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -3485,7 +3977,7 @@
     </row>
     <row r="118" spans="1:8">
       <c r="A118" s="2" t="s">
-        <v>249</v>
+        <v>297</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -3497,7 +3989,7 @@
     </row>
     <row r="119" spans="1:8">
       <c r="A119" s="2" t="s">
-        <v>250</v>
+        <v>298</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -3509,7 +4001,7 @@
     </row>
     <row r="120" spans="1:8">
       <c r="A120" s="2" t="s">
-        <v>251</v>
+        <v>299</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -3521,7 +4013,7 @@
     </row>
     <row r="121" spans="1:8">
       <c r="A121" s="2" t="s">
-        <v>252</v>
+        <v>300</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -3533,7 +4025,7 @@
     </row>
     <row r="122" spans="1:8">
       <c r="A122" s="2" t="s">
-        <v>253</v>
+        <v>301</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -3545,7 +4037,7 @@
     </row>
     <row r="123" spans="1:8">
       <c r="A123" s="2" t="s">
-        <v>254</v>
+        <v>302</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -3557,7 +4049,7 @@
     </row>
     <row r="124" spans="1:8">
       <c r="A124" s="2" t="s">
-        <v>255</v>
+        <v>303</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -3569,7 +4061,7 @@
     </row>
     <row r="125" spans="1:8">
       <c r="A125" s="2" t="s">
-        <v>256</v>
+        <v>304</v>
       </c>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -3581,7 +4073,7 @@
     </row>
     <row r="126" spans="1:8">
       <c r="A126" s="2" t="s">
-        <v>257</v>
+        <v>305</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -3593,7 +4085,7 @@
     </row>
     <row r="127" spans="1:8">
       <c r="A127" s="2" t="s">
-        <v>258</v>
+        <v>306</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -3605,7 +4097,7 @@
     </row>
     <row r="128" spans="1:8">
       <c r="A128" s="2" t="s">
-        <v>259</v>
+        <v>307</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -3617,7 +4109,7 @@
     </row>
     <row r="129" spans="1:8">
       <c r="A129" s="2" t="s">
-        <v>260</v>
+        <v>308</v>
       </c>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -3629,7 +4121,7 @@
     </row>
     <row r="130" spans="1:8">
       <c r="A130" s="2" t="s">
-        <v>261</v>
+        <v>309</v>
       </c>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -3641,7 +4133,7 @@
     </row>
     <row r="131" spans="1:8">
       <c r="A131" s="2" t="s">
-        <v>262</v>
+        <v>310</v>
       </c>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -3653,7 +4145,7 @@
     </row>
     <row r="132" spans="1:8">
       <c r="A132" s="2" t="s">
-        <v>263</v>
+        <v>311</v>
       </c>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -3665,7 +4157,7 @@
     </row>
     <row r="133" spans="1:8">
       <c r="A133" s="2" t="s">
-        <v>264</v>
+        <v>312</v>
       </c>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
@@ -3677,7 +4169,7 @@
     </row>
     <row r="134" spans="1:8">
       <c r="A134" s="2" t="s">
-        <v>265</v>
+        <v>313</v>
       </c>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
@@ -3689,7 +4181,7 @@
     </row>
     <row r="135" spans="1:8">
       <c r="A135" s="2" t="s">
-        <v>266</v>
+        <v>314</v>
       </c>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
@@ -3701,7 +4193,7 @@
     </row>
     <row r="136" spans="1:8">
       <c r="A136" s="2" t="s">
-        <v>267</v>
+        <v>315</v>
       </c>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
@@ -3713,7 +4205,7 @@
     </row>
     <row r="137" spans="1:8">
       <c r="A137" s="2" t="s">
-        <v>268</v>
+        <v>316</v>
       </c>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
@@ -3725,7 +4217,7 @@
     </row>
     <row r="138" spans="1:8">
       <c r="A138" s="2" t="s">
-        <v>269</v>
+        <v>317</v>
       </c>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
@@ -3737,7 +4229,7 @@
     </row>
     <row r="139" spans="1:8">
       <c r="A139" s="2" t="s">
-        <v>270</v>
+        <v>318</v>
       </c>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
@@ -3749,7 +4241,7 @@
     </row>
     <row r="140" spans="1:8">
       <c r="A140" s="2" t="s">
-        <v>271</v>
+        <v>319</v>
       </c>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
@@ -3761,7 +4253,7 @@
     </row>
     <row r="141" spans="1:8">
       <c r="A141" s="2" t="s">
-        <v>272</v>
+        <v>320</v>
       </c>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
@@ -3773,7 +4265,7 @@
     </row>
     <row r="142" spans="1:8">
       <c r="A142" s="2" t="s">
-        <v>273</v>
+        <v>321</v>
       </c>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
@@ -3785,7 +4277,7 @@
     </row>
     <row r="143" spans="1:8">
       <c r="A143" s="2" t="s">
-        <v>274</v>
+        <v>322</v>
       </c>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
@@ -3797,7 +4289,7 @@
     </row>
     <row r="144" spans="1:8">
       <c r="A144" s="2" t="s">
-        <v>275</v>
+        <v>323</v>
       </c>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
@@ -3809,7 +4301,7 @@
     </row>
     <row r="145" spans="1:8">
       <c r="A145" s="2" t="s">
-        <v>276</v>
+        <v>324</v>
       </c>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
@@ -3821,7 +4313,7 @@
     </row>
     <row r="146" spans="1:8">
       <c r="A146" s="2" t="s">
-        <v>277</v>
+        <v>325</v>
       </c>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
@@ -3833,7 +4325,7 @@
     </row>
     <row r="147" spans="1:8">
       <c r="A147" s="2" t="s">
-        <v>278</v>
+        <v>326</v>
       </c>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
@@ -3845,7 +4337,7 @@
     </row>
     <row r="148" spans="1:8">
       <c r="A148" s="2" t="s">
-        <v>279</v>
+        <v>327</v>
       </c>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
@@ -3857,7 +4349,7 @@
     </row>
     <row r="149" spans="1:8">
       <c r="A149" s="2" t="s">
-        <v>280</v>
+        <v>328</v>
       </c>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
@@ -3869,7 +4361,7 @@
     </row>
     <row r="150" spans="1:8">
       <c r="A150" s="2" t="s">
-        <v>281</v>
+        <v>329</v>
       </c>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
@@ -3881,7 +4373,7 @@
     </row>
     <row r="151" spans="1:8">
       <c r="A151" s="2" t="s">
-        <v>282</v>
+        <v>330</v>
       </c>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
@@ -3893,7 +4385,7 @@
     </row>
     <row r="152" spans="1:8">
       <c r="A152" s="2" t="s">
-        <v>283</v>
+        <v>331</v>
       </c>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
@@ -3928,7 +4420,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>134</v>
+        <v>182</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -3964,317 +4456,175 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
-        <v>135</v>
+        <v>183</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>24</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>41</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>54</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>74</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>86</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>90</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>98</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>102</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>105</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>107</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>108</v>
-      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
       <c r="H13" s="2"/>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>117</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
       <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>129</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
       <c r="H15" s="2"/>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="2" t="s">
-        <v>147</v>
+        <v>195</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -4286,7 +4636,7 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="2" t="s">
-        <v>148</v>
+        <v>196</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -4298,7 +4648,7 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="2" t="s">
-        <v>149</v>
+        <v>197</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -4310,7 +4660,7 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="2" t="s">
-        <v>150</v>
+        <v>198</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -4322,7 +4672,7 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="2" t="s">
-        <v>151</v>
+        <v>199</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -4334,7 +4684,7 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="2" t="s">
-        <v>152</v>
+        <v>200</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -4346,7 +4696,7 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="2" t="s">
-        <v>153</v>
+        <v>201</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -4358,7 +4708,7 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="2" t="s">
-        <v>154</v>
+        <v>202</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -4370,7 +4720,7 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="2" t="s">
-        <v>155</v>
+        <v>203</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -4382,7 +4732,7 @@
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="2" t="s">
-        <v>156</v>
+        <v>204</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -4394,7 +4744,7 @@
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="2" t="s">
-        <v>157</v>
+        <v>205</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -4406,7 +4756,7 @@
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="2" t="s">
-        <v>158</v>
+        <v>206</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -4418,7 +4768,7 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="2" t="s">
-        <v>159</v>
+        <v>207</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -4430,7 +4780,7 @@
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="2" t="s">
-        <v>160</v>
+        <v>208</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -4442,7 +4792,7 @@
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="2" t="s">
-        <v>161</v>
+        <v>209</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -4454,7 +4804,7 @@
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="2" t="s">
-        <v>162</v>
+        <v>210</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -4466,7 +4816,7 @@
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="2" t="s">
-        <v>163</v>
+        <v>211</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -4478,7 +4828,7 @@
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="2" t="s">
-        <v>164</v>
+        <v>212</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -4490,7 +4840,7 @@
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="2" t="s">
-        <v>165</v>
+        <v>213</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -4502,7 +4852,7 @@
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="2" t="s">
-        <v>166</v>
+        <v>214</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -4514,7 +4864,7 @@
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="2" t="s">
-        <v>167</v>
+        <v>215</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -4526,7 +4876,7 @@
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="2" t="s">
-        <v>168</v>
+        <v>216</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -4538,7 +4888,7 @@
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="2" t="s">
-        <v>169</v>
+        <v>217</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -4550,7 +4900,7 @@
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="2" t="s">
-        <v>170</v>
+        <v>218</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -4562,7 +4912,7 @@
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="2" t="s">
-        <v>171</v>
+        <v>219</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -4574,7 +4924,7 @@
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="2" t="s">
-        <v>172</v>
+        <v>220</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -4586,7 +4936,7 @@
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="2" t="s">
-        <v>173</v>
+        <v>221</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -4598,7 +4948,7 @@
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="2" t="s">
-        <v>174</v>
+        <v>222</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -4610,7 +4960,7 @@
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="2" t="s">
-        <v>175</v>
+        <v>223</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -4622,7 +4972,7 @@
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="2" t="s">
-        <v>176</v>
+        <v>224</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -4634,7 +4984,7 @@
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="2" t="s">
-        <v>177</v>
+        <v>225</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -4646,7 +4996,7 @@
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="2" t="s">
-        <v>178</v>
+        <v>226</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -4658,7 +5008,7 @@
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="2" t="s">
-        <v>179</v>
+        <v>227</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -4670,7 +5020,7 @@
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="2" t="s">
-        <v>180</v>
+        <v>228</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -4682,7 +5032,7 @@
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="2" t="s">
-        <v>181</v>
+        <v>229</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -4694,7 +5044,7 @@
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="2" t="s">
-        <v>182</v>
+        <v>230</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -4706,7 +5056,7 @@
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="2" t="s">
-        <v>183</v>
+        <v>231</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -4718,7 +5068,7 @@
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="2" t="s">
-        <v>184</v>
+        <v>232</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -4730,7 +5080,7 @@
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="2" t="s">
-        <v>185</v>
+        <v>233</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -4742,7 +5092,7 @@
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="2" t="s">
-        <v>186</v>
+        <v>234</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -4754,7 +5104,7 @@
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="2" t="s">
-        <v>187</v>
+        <v>235</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -4766,7 +5116,7 @@
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="2" t="s">
-        <v>188</v>
+        <v>236</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -4778,7 +5128,7 @@
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="2" t="s">
-        <v>189</v>
+        <v>237</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -4790,7 +5140,7 @@
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="2" t="s">
-        <v>190</v>
+        <v>238</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -4802,7 +5152,7 @@
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="2" t="s">
-        <v>191</v>
+        <v>239</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -4814,7 +5164,7 @@
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="2" t="s">
-        <v>192</v>
+        <v>240</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -4826,7 +5176,7 @@
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="2" t="s">
-        <v>193</v>
+        <v>241</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -4838,7 +5188,7 @@
     </row>
     <row r="63" spans="1:8">
       <c r="A63" s="2" t="s">
-        <v>194</v>
+        <v>242</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -4850,7 +5200,7 @@
     </row>
     <row r="64" spans="1:8">
       <c r="A64" s="2" t="s">
-        <v>195</v>
+        <v>243</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -4862,7 +5212,7 @@
     </row>
     <row r="65" spans="1:8">
       <c r="A65" s="2" t="s">
-        <v>196</v>
+        <v>244</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -4874,7 +5224,7 @@
     </row>
     <row r="66" spans="1:8">
       <c r="A66" s="2" t="s">
-        <v>197</v>
+        <v>245</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -4886,7 +5236,7 @@
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="2" t="s">
-        <v>198</v>
+        <v>246</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -4898,7 +5248,7 @@
     </row>
     <row r="68" spans="1:8">
       <c r="A68" s="2" t="s">
-        <v>199</v>
+        <v>247</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -4910,7 +5260,7 @@
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="2" t="s">
-        <v>200</v>
+        <v>248</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -4922,7 +5272,7 @@
     </row>
     <row r="70" spans="1:8">
       <c r="A70" s="2" t="s">
-        <v>201</v>
+        <v>249</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -4934,7 +5284,7 @@
     </row>
     <row r="71" spans="1:8">
       <c r="A71" s="2" t="s">
-        <v>202</v>
+        <v>250</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -4946,7 +5296,7 @@
     </row>
     <row r="72" spans="1:8">
       <c r="A72" s="2" t="s">
-        <v>203</v>
+        <v>251</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -4958,7 +5308,7 @@
     </row>
     <row r="73" spans="1:8">
       <c r="A73" s="2" t="s">
-        <v>204</v>
+        <v>252</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -4970,7 +5320,7 @@
     </row>
     <row r="74" spans="1:8">
       <c r="A74" s="2" t="s">
-        <v>205</v>
+        <v>253</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -4982,7 +5332,7 @@
     </row>
     <row r="75" spans="1:8">
       <c r="A75" s="2" t="s">
-        <v>206</v>
+        <v>254</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -4994,7 +5344,7 @@
     </row>
     <row r="76" spans="1:8">
       <c r="A76" s="2" t="s">
-        <v>207</v>
+        <v>255</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -5006,7 +5356,7 @@
     </row>
     <row r="77" spans="1:8">
       <c r="A77" s="2" t="s">
-        <v>208</v>
+        <v>256</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -5018,7 +5368,7 @@
     </row>
     <row r="78" spans="1:8">
       <c r="A78" s="2" t="s">
-        <v>209</v>
+        <v>257</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -5030,7 +5380,7 @@
     </row>
     <row r="79" spans="1:8">
       <c r="A79" s="2" t="s">
-        <v>210</v>
+        <v>258</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -5042,7 +5392,7 @@
     </row>
     <row r="80" spans="1:8">
       <c r="A80" s="2" t="s">
-        <v>211</v>
+        <v>259</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -5054,7 +5404,7 @@
     </row>
     <row r="81" spans="1:8">
       <c r="A81" s="2" t="s">
-        <v>212</v>
+        <v>260</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -5066,7 +5416,7 @@
     </row>
     <row r="82" spans="1:8">
       <c r="A82" s="2" t="s">
-        <v>213</v>
+        <v>261</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -5078,7 +5428,7 @@
     </row>
     <row r="83" spans="1:8">
       <c r="A83" s="2" t="s">
-        <v>214</v>
+        <v>262</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -5090,7 +5440,7 @@
     </row>
     <row r="84" spans="1:8">
       <c r="A84" s="2" t="s">
-        <v>215</v>
+        <v>263</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -5102,7 +5452,7 @@
     </row>
     <row r="85" spans="1:8">
       <c r="A85" s="2" t="s">
-        <v>216</v>
+        <v>264</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -5114,7 +5464,7 @@
     </row>
     <row r="86" spans="1:8">
       <c r="A86" s="2" t="s">
-        <v>217</v>
+        <v>265</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -5126,7 +5476,7 @@
     </row>
     <row r="87" spans="1:8">
       <c r="A87" s="2" t="s">
-        <v>218</v>
+        <v>266</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -5138,7 +5488,7 @@
     </row>
     <row r="88" spans="1:8">
       <c r="A88" s="2" t="s">
-        <v>219</v>
+        <v>267</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -5150,7 +5500,7 @@
     </row>
     <row r="89" spans="1:8">
       <c r="A89" s="2" t="s">
-        <v>220</v>
+        <v>268</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -5162,7 +5512,7 @@
     </row>
     <row r="90" spans="1:8">
       <c r="A90" s="2" t="s">
-        <v>221</v>
+        <v>269</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -5174,7 +5524,7 @@
     </row>
     <row r="91" spans="1:8">
       <c r="A91" s="2" t="s">
-        <v>222</v>
+        <v>270</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -5186,7 +5536,7 @@
     </row>
     <row r="92" spans="1:8">
       <c r="A92" s="2" t="s">
-        <v>223</v>
+        <v>271</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -5198,7 +5548,7 @@
     </row>
     <row r="93" spans="1:8">
       <c r="A93" s="2" t="s">
-        <v>224</v>
+        <v>272</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -5210,7 +5560,7 @@
     </row>
     <row r="94" spans="1:8">
       <c r="A94" s="2" t="s">
-        <v>225</v>
+        <v>273</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -5222,7 +5572,7 @@
     </row>
     <row r="95" spans="1:8">
       <c r="A95" s="2" t="s">
-        <v>226</v>
+        <v>274</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -5234,7 +5584,7 @@
     </row>
     <row r="96" spans="1:8">
       <c r="A96" s="2" t="s">
-        <v>227</v>
+        <v>275</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -5246,7 +5596,7 @@
     </row>
     <row r="97" spans="1:8">
       <c r="A97" s="2" t="s">
-        <v>228</v>
+        <v>276</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -5258,7 +5608,7 @@
     </row>
     <row r="98" spans="1:8">
       <c r="A98" s="2" t="s">
-        <v>229</v>
+        <v>277</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -5270,7 +5620,7 @@
     </row>
     <row r="99" spans="1:8">
       <c r="A99" s="2" t="s">
-        <v>230</v>
+        <v>278</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -5282,7 +5632,7 @@
     </row>
     <row r="100" spans="1:8">
       <c r="A100" s="2" t="s">
-        <v>231</v>
+        <v>279</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -5294,7 +5644,7 @@
     </row>
     <row r="101" spans="1:8">
       <c r="A101" s="2" t="s">
-        <v>232</v>
+        <v>280</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -5306,7 +5656,7 @@
     </row>
     <row r="102" spans="1:8">
       <c r="A102" s="2" t="s">
-        <v>233</v>
+        <v>281</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -5318,7 +5668,7 @@
     </row>
     <row r="103" spans="1:8">
       <c r="A103" s="2" t="s">
-        <v>234</v>
+        <v>282</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -5330,7 +5680,7 @@
     </row>
     <row r="104" spans="1:8">
       <c r="A104" s="2" t="s">
-        <v>235</v>
+        <v>283</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -5342,7 +5692,7 @@
     </row>
     <row r="105" spans="1:8">
       <c r="A105" s="2" t="s">
-        <v>236</v>
+        <v>284</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -5354,7 +5704,7 @@
     </row>
     <row r="106" spans="1:8">
       <c r="A106" s="2" t="s">
-        <v>237</v>
+        <v>285</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -5366,7 +5716,7 @@
     </row>
     <row r="107" spans="1:8">
       <c r="A107" s="2" t="s">
-        <v>238</v>
+        <v>286</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -5378,7 +5728,7 @@
     </row>
     <row r="108" spans="1:8">
       <c r="A108" s="2" t="s">
-        <v>239</v>
+        <v>287</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -5390,7 +5740,7 @@
     </row>
     <row r="109" spans="1:8">
       <c r="A109" s="2" t="s">
-        <v>240</v>
+        <v>288</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -5402,7 +5752,7 @@
     </row>
     <row r="110" spans="1:8">
       <c r="A110" s="2" t="s">
-        <v>241</v>
+        <v>289</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -5414,7 +5764,7 @@
     </row>
     <row r="111" spans="1:8">
       <c r="A111" s="2" t="s">
-        <v>242</v>
+        <v>290</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -5426,7 +5776,7 @@
     </row>
     <row r="112" spans="1:8">
       <c r="A112" s="2" t="s">
-        <v>243</v>
+        <v>291</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -5438,7 +5788,7 @@
     </row>
     <row r="113" spans="1:8">
       <c r="A113" s="2" t="s">
-        <v>244</v>
+        <v>292</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -5450,7 +5800,7 @@
     </row>
     <row r="114" spans="1:8">
       <c r="A114" s="2" t="s">
-        <v>245</v>
+        <v>293</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -5462,7 +5812,7 @@
     </row>
     <row r="115" spans="1:8">
       <c r="A115" s="2" t="s">
-        <v>246</v>
+        <v>294</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -5474,7 +5824,7 @@
     </row>
     <row r="116" spans="1:8">
       <c r="A116" s="2" t="s">
-        <v>247</v>
+        <v>295</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -5486,7 +5836,7 @@
     </row>
     <row r="117" spans="1:8">
       <c r="A117" s="2" t="s">
-        <v>248</v>
+        <v>296</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -5498,7 +5848,7 @@
     </row>
     <row r="118" spans="1:8">
       <c r="A118" s="2" t="s">
-        <v>249</v>
+        <v>297</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -5510,7 +5860,7 @@
     </row>
     <row r="119" spans="1:8">
       <c r="A119" s="2" t="s">
-        <v>250</v>
+        <v>298</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -5522,7 +5872,7 @@
     </row>
     <row r="120" spans="1:8">
       <c r="A120" s="2" t="s">
-        <v>251</v>
+        <v>299</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -5534,7 +5884,7 @@
     </row>
     <row r="121" spans="1:8">
       <c r="A121" s="2" t="s">
-        <v>252</v>
+        <v>300</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -5546,7 +5896,7 @@
     </row>
     <row r="122" spans="1:8">
       <c r="A122" s="2" t="s">
-        <v>253</v>
+        <v>301</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -5558,7 +5908,7 @@
     </row>
     <row r="123" spans="1:8">
       <c r="A123" s="2" t="s">
-        <v>254</v>
+        <v>302</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -5570,7 +5920,7 @@
     </row>
     <row r="124" spans="1:8">
       <c r="A124" s="2" t="s">
-        <v>255</v>
+        <v>303</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -5582,7 +5932,7 @@
     </row>
     <row r="125" spans="1:8">
       <c r="A125" s="2" t="s">
-        <v>256</v>
+        <v>304</v>
       </c>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -5594,7 +5944,7 @@
     </row>
     <row r="126" spans="1:8">
       <c r="A126" s="2" t="s">
-        <v>257</v>
+        <v>305</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -5606,7 +5956,7 @@
     </row>
     <row r="127" spans="1:8">
       <c r="A127" s="2" t="s">
-        <v>258</v>
+        <v>306</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -5618,7 +5968,7 @@
     </row>
     <row r="128" spans="1:8">
       <c r="A128" s="2" t="s">
-        <v>259</v>
+        <v>307</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -5630,7 +5980,7 @@
     </row>
     <row r="129" spans="1:8">
       <c r="A129" s="2" t="s">
-        <v>260</v>
+        <v>308</v>
       </c>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -5642,7 +5992,7 @@
     </row>
     <row r="130" spans="1:8">
       <c r="A130" s="2" t="s">
-        <v>261</v>
+        <v>309</v>
       </c>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -5654,7 +6004,7 @@
     </row>
     <row r="131" spans="1:8">
       <c r="A131" s="2" t="s">
-        <v>262</v>
+        <v>310</v>
       </c>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -5666,7 +6016,7 @@
     </row>
     <row r="132" spans="1:8">
       <c r="A132" s="2" t="s">
-        <v>263</v>
+        <v>311</v>
       </c>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -5678,7 +6028,7 @@
     </row>
     <row r="133" spans="1:8">
       <c r="A133" s="2" t="s">
-        <v>264</v>
+        <v>312</v>
       </c>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
@@ -5690,7 +6040,7 @@
     </row>
     <row r="134" spans="1:8">
       <c r="A134" s="2" t="s">
-        <v>265</v>
+        <v>313</v>
       </c>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
@@ -5702,7 +6052,7 @@
     </row>
     <row r="135" spans="1:8">
       <c r="A135" s="2" t="s">
-        <v>266</v>
+        <v>314</v>
       </c>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
@@ -5714,7 +6064,7 @@
     </row>
     <row r="136" spans="1:8">
       <c r="A136" s="2" t="s">
-        <v>267</v>
+        <v>315</v>
       </c>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
@@ -5726,7 +6076,7 @@
     </row>
     <row r="137" spans="1:8">
       <c r="A137" s="2" t="s">
-        <v>268</v>
+        <v>316</v>
       </c>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
@@ -5738,7 +6088,7 @@
     </row>
     <row r="138" spans="1:8">
       <c r="A138" s="2" t="s">
-        <v>269</v>
+        <v>317</v>
       </c>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
@@ -5750,7 +6100,7 @@
     </row>
     <row r="139" spans="1:8">
       <c r="A139" s="2" t="s">
-        <v>270</v>
+        <v>318</v>
       </c>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
@@ -5762,7 +6112,7 @@
     </row>
     <row r="140" spans="1:8">
       <c r="A140" s="2" t="s">
-        <v>271</v>
+        <v>319</v>
       </c>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
@@ -5774,7 +6124,7 @@
     </row>
     <row r="141" spans="1:8">
       <c r="A141" s="2" t="s">
-        <v>272</v>
+        <v>320</v>
       </c>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
@@ -5786,7 +6136,7 @@
     </row>
     <row r="142" spans="1:8">
       <c r="A142" s="2" t="s">
-        <v>273</v>
+        <v>321</v>
       </c>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
@@ -5798,7 +6148,7 @@
     </row>
     <row r="143" spans="1:8">
       <c r="A143" s="2" t="s">
-        <v>274</v>
+        <v>322</v>
       </c>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
@@ -5810,7 +6160,7 @@
     </row>
     <row r="144" spans="1:8">
       <c r="A144" s="2" t="s">
-        <v>275</v>
+        <v>323</v>
       </c>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
@@ -5822,7 +6172,7 @@
     </row>
     <row r="145" spans="1:8">
       <c r="A145" s="2" t="s">
-        <v>276</v>
+        <v>324</v>
       </c>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
@@ -5834,7 +6184,7 @@
     </row>
     <row r="146" spans="1:8">
       <c r="A146" s="2" t="s">
-        <v>277</v>
+        <v>325</v>
       </c>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
@@ -5846,7 +6196,7 @@
     </row>
     <row r="147" spans="1:8">
       <c r="A147" s="2" t="s">
-        <v>278</v>
+        <v>326</v>
       </c>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
@@ -5858,7 +6208,7 @@
     </row>
     <row r="148" spans="1:8">
       <c r="A148" s="2" t="s">
-        <v>279</v>
+        <v>327</v>
       </c>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
@@ -5870,7 +6220,7 @@
     </row>
     <row r="149" spans="1:8">
       <c r="A149" s="2" t="s">
-        <v>280</v>
+        <v>328</v>
       </c>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
@@ -5882,7 +6232,7 @@
     </row>
     <row r="150" spans="1:8">
       <c r="A150" s="2" t="s">
-        <v>281</v>
+        <v>329</v>
       </c>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
@@ -5894,7 +6244,7 @@
     </row>
     <row r="151" spans="1:8">
       <c r="A151" s="2" t="s">
-        <v>282</v>
+        <v>330</v>
       </c>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
@@ -5906,7 +6256,7 @@
     </row>
     <row r="152" spans="1:8">
       <c r="A152" s="2" t="s">
-        <v>283</v>
+        <v>331</v>
       </c>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
@@ -5941,7 +6291,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>134</v>
+        <v>182</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -5977,127 +6327,223 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
-        <v>135</v>
+        <v>183</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
+        <v>184</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
+        <v>185</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>67</v>
+      </c>
       <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
+        <v>187</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
+        <v>188</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>83</v>
+      </c>
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
+        <v>64</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>92</v>
+      </c>
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
+        <v>189</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>116</v>
+      </c>
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
+        <v>190</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>169</v>
+      </c>
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="2" t="s">
-        <v>143</v>
+        <v>191</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -6109,7 +6555,7 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="2" t="s">
-        <v>144</v>
+        <v>192</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -6121,7 +6567,7 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="2" t="s">
-        <v>145</v>
+        <v>193</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -6133,7 +6579,7 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="2" t="s">
-        <v>146</v>
+        <v>194</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -6145,7 +6591,7 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="2" t="s">
-        <v>147</v>
+        <v>195</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -6157,7 +6603,7 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="2" t="s">
-        <v>148</v>
+        <v>196</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -6169,7 +6615,7 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="2" t="s">
-        <v>149</v>
+        <v>197</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -6181,7 +6627,7 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="2" t="s">
-        <v>150</v>
+        <v>198</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -6193,7 +6639,7 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="2" t="s">
-        <v>151</v>
+        <v>199</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -6205,7 +6651,7 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="2" t="s">
-        <v>152</v>
+        <v>200</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -6217,7 +6663,7 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="2" t="s">
-        <v>153</v>
+        <v>201</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -6229,7 +6675,7 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="2" t="s">
-        <v>154</v>
+        <v>202</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -6241,7 +6687,7 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="2" t="s">
-        <v>155</v>
+        <v>203</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -6253,7 +6699,7 @@
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="2" t="s">
-        <v>156</v>
+        <v>204</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -6265,7 +6711,7 @@
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="2" t="s">
-        <v>157</v>
+        <v>205</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -6277,7 +6723,7 @@
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="2" t="s">
-        <v>158</v>
+        <v>206</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -6289,7 +6735,7 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="2" t="s">
-        <v>159</v>
+        <v>207</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -6301,7 +6747,7 @@
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="2" t="s">
-        <v>160</v>
+        <v>208</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -6313,7 +6759,7 @@
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="2" t="s">
-        <v>161</v>
+        <v>209</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -6325,7 +6771,7 @@
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="2" t="s">
-        <v>162</v>
+        <v>210</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -6337,7 +6783,7 @@
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="2" t="s">
-        <v>163</v>
+        <v>211</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -6349,7 +6795,7 @@
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="2" t="s">
-        <v>164</v>
+        <v>212</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -6361,7 +6807,7 @@
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="2" t="s">
-        <v>165</v>
+        <v>213</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -6373,7 +6819,7 @@
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="2" t="s">
-        <v>166</v>
+        <v>214</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -6385,7 +6831,7 @@
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="2" t="s">
-        <v>167</v>
+        <v>215</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -6397,7 +6843,7 @@
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="2" t="s">
-        <v>168</v>
+        <v>216</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -6409,7 +6855,7 @@
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="2" t="s">
-        <v>169</v>
+        <v>217</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -6421,7 +6867,7 @@
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="2" t="s">
-        <v>170</v>
+        <v>218</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -6433,7 +6879,7 @@
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="2" t="s">
-        <v>171</v>
+        <v>219</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -6445,7 +6891,7 @@
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="2" t="s">
-        <v>172</v>
+        <v>220</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -6457,7 +6903,7 @@
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="2" t="s">
-        <v>173</v>
+        <v>221</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -6469,7 +6915,7 @@
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="2" t="s">
-        <v>174</v>
+        <v>222</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -6481,7 +6927,7 @@
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="2" t="s">
-        <v>175</v>
+        <v>223</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -6493,7 +6939,7 @@
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="2" t="s">
-        <v>176</v>
+        <v>224</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -6505,7 +6951,7 @@
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="2" t="s">
-        <v>177</v>
+        <v>225</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -6517,7 +6963,7 @@
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="2" t="s">
-        <v>178</v>
+        <v>226</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -6529,7 +6975,7 @@
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="2" t="s">
-        <v>179</v>
+        <v>227</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -6541,7 +6987,7 @@
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="2" t="s">
-        <v>180</v>
+        <v>228</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -6553,7 +6999,7 @@
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="2" t="s">
-        <v>181</v>
+        <v>229</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -6565,7 +7011,7 @@
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="2" t="s">
-        <v>182</v>
+        <v>230</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -6577,7 +7023,7 @@
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="2" t="s">
-        <v>183</v>
+        <v>231</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -6589,7 +7035,7 @@
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="2" t="s">
-        <v>184</v>
+        <v>232</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -6601,7 +7047,7 @@
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="2" t="s">
-        <v>185</v>
+        <v>233</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -6613,7 +7059,7 @@
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="2" t="s">
-        <v>186</v>
+        <v>234</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -6625,7 +7071,7 @@
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="2" t="s">
-        <v>187</v>
+        <v>235</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -6637,7 +7083,7 @@
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="2" t="s">
-        <v>188</v>
+        <v>236</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -6649,7 +7095,7 @@
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="2" t="s">
-        <v>189</v>
+        <v>237</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -6661,7 +7107,7 @@
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="2" t="s">
-        <v>190</v>
+        <v>238</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -6673,7 +7119,7 @@
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="2" t="s">
-        <v>191</v>
+        <v>239</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -6685,7 +7131,7 @@
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="2" t="s">
-        <v>192</v>
+        <v>240</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -6697,7 +7143,7 @@
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="2" t="s">
-        <v>193</v>
+        <v>241</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -6709,7 +7155,7 @@
     </row>
     <row r="63" spans="1:8">
       <c r="A63" s="2" t="s">
-        <v>194</v>
+        <v>242</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -6721,7 +7167,7 @@
     </row>
     <row r="64" spans="1:8">
       <c r="A64" s="2" t="s">
-        <v>195</v>
+        <v>243</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -6733,7 +7179,7 @@
     </row>
     <row r="65" spans="1:8">
       <c r="A65" s="2" t="s">
-        <v>196</v>
+        <v>244</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -6745,7 +7191,7 @@
     </row>
     <row r="66" spans="1:8">
       <c r="A66" s="2" t="s">
-        <v>197</v>
+        <v>245</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -6757,7 +7203,7 @@
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="2" t="s">
-        <v>198</v>
+        <v>246</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -6769,7 +7215,7 @@
     </row>
     <row r="68" spans="1:8">
       <c r="A68" s="2" t="s">
-        <v>199</v>
+        <v>247</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -6781,7 +7227,7 @@
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="2" t="s">
-        <v>200</v>
+        <v>248</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -6793,7 +7239,7 @@
     </row>
     <row r="70" spans="1:8">
       <c r="A70" s="2" t="s">
-        <v>201</v>
+        <v>249</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -6805,7 +7251,7 @@
     </row>
     <row r="71" spans="1:8">
       <c r="A71" s="2" t="s">
-        <v>202</v>
+        <v>250</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -6817,7 +7263,7 @@
     </row>
     <row r="72" spans="1:8">
       <c r="A72" s="2" t="s">
-        <v>203</v>
+        <v>251</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -6829,7 +7275,7 @@
     </row>
     <row r="73" spans="1:8">
       <c r="A73" s="2" t="s">
-        <v>204</v>
+        <v>252</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -6841,7 +7287,7 @@
     </row>
     <row r="74" spans="1:8">
       <c r="A74" s="2" t="s">
-        <v>205</v>
+        <v>253</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -6853,7 +7299,7 @@
     </row>
     <row r="75" spans="1:8">
       <c r="A75" s="2" t="s">
-        <v>206</v>
+        <v>254</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -6865,7 +7311,7 @@
     </row>
     <row r="76" spans="1:8">
       <c r="A76" s="2" t="s">
-        <v>207</v>
+        <v>255</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -6877,7 +7323,7 @@
     </row>
     <row r="77" spans="1:8">
       <c r="A77" s="2" t="s">
-        <v>208</v>
+        <v>256</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -6889,7 +7335,7 @@
     </row>
     <row r="78" spans="1:8">
       <c r="A78" s="2" t="s">
-        <v>209</v>
+        <v>257</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -6901,7 +7347,7 @@
     </row>
     <row r="79" spans="1:8">
       <c r="A79" s="2" t="s">
-        <v>210</v>
+        <v>258</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -6913,7 +7359,7 @@
     </row>
     <row r="80" spans="1:8">
       <c r="A80" s="2" t="s">
-        <v>211</v>
+        <v>259</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -6925,7 +7371,7 @@
     </row>
     <row r="81" spans="1:8">
       <c r="A81" s="2" t="s">
-        <v>212</v>
+        <v>260</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -6937,7 +7383,7 @@
     </row>
     <row r="82" spans="1:8">
       <c r="A82" s="2" t="s">
-        <v>213</v>
+        <v>261</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -6949,7 +7395,7 @@
     </row>
     <row r="83" spans="1:8">
       <c r="A83" s="2" t="s">
-        <v>214</v>
+        <v>262</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -6961,7 +7407,7 @@
     </row>
     <row r="84" spans="1:8">
       <c r="A84" s="2" t="s">
-        <v>215</v>
+        <v>263</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -6973,7 +7419,7 @@
     </row>
     <row r="85" spans="1:8">
       <c r="A85" s="2" t="s">
-        <v>216</v>
+        <v>264</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -6985,7 +7431,7 @@
     </row>
     <row r="86" spans="1:8">
       <c r="A86" s="2" t="s">
-        <v>217</v>
+        <v>265</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -6997,7 +7443,7 @@
     </row>
     <row r="87" spans="1:8">
       <c r="A87" s="2" t="s">
-        <v>218</v>
+        <v>266</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -7009,7 +7455,7 @@
     </row>
     <row r="88" spans="1:8">
       <c r="A88" s="2" t="s">
-        <v>219</v>
+        <v>267</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -7021,7 +7467,7 @@
     </row>
     <row r="89" spans="1:8">
       <c r="A89" s="2" t="s">
-        <v>220</v>
+        <v>268</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -7033,7 +7479,7 @@
     </row>
     <row r="90" spans="1:8">
       <c r="A90" s="2" t="s">
-        <v>221</v>
+        <v>269</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -7045,7 +7491,7 @@
     </row>
     <row r="91" spans="1:8">
       <c r="A91" s="2" t="s">
-        <v>222</v>
+        <v>270</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -7057,7 +7503,7 @@
     </row>
     <row r="92" spans="1:8">
       <c r="A92" s="2" t="s">
-        <v>223</v>
+        <v>271</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -7069,7 +7515,7 @@
     </row>
     <row r="93" spans="1:8">
       <c r="A93" s="2" t="s">
-        <v>224</v>
+        <v>272</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -7081,7 +7527,7 @@
     </row>
     <row r="94" spans="1:8">
       <c r="A94" s="2" t="s">
-        <v>225</v>
+        <v>273</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -7093,7 +7539,7 @@
     </row>
     <row r="95" spans="1:8">
       <c r="A95" s="2" t="s">
-        <v>226</v>
+        <v>274</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -7105,7 +7551,7 @@
     </row>
     <row r="96" spans="1:8">
       <c r="A96" s="2" t="s">
-        <v>227</v>
+        <v>275</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -7117,7 +7563,7 @@
     </row>
     <row r="97" spans="1:8">
       <c r="A97" s="2" t="s">
-        <v>228</v>
+        <v>276</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -7129,7 +7575,7 @@
     </row>
     <row r="98" spans="1:8">
       <c r="A98" s="2" t="s">
-        <v>229</v>
+        <v>277</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -7141,7 +7587,7 @@
     </row>
     <row r="99" spans="1:8">
       <c r="A99" s="2" t="s">
-        <v>230</v>
+        <v>278</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -7153,7 +7599,7 @@
     </row>
     <row r="100" spans="1:8">
       <c r="A100" s="2" t="s">
-        <v>231</v>
+        <v>279</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -7165,7 +7611,7 @@
     </row>
     <row r="101" spans="1:8">
       <c r="A101" s="2" t="s">
-        <v>232</v>
+        <v>280</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -7177,7 +7623,7 @@
     </row>
     <row r="102" spans="1:8">
       <c r="A102" s="2" t="s">
-        <v>233</v>
+        <v>281</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -7189,7 +7635,7 @@
     </row>
     <row r="103" spans="1:8">
       <c r="A103" s="2" t="s">
-        <v>234</v>
+        <v>282</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -7201,7 +7647,7 @@
     </row>
     <row r="104" spans="1:8">
       <c r="A104" s="2" t="s">
-        <v>235</v>
+        <v>283</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -7213,7 +7659,7 @@
     </row>
     <row r="105" spans="1:8">
       <c r="A105" s="2" t="s">
-        <v>236</v>
+        <v>284</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -7225,7 +7671,7 @@
     </row>
     <row r="106" spans="1:8">
       <c r="A106" s="2" t="s">
-        <v>237</v>
+        <v>285</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -7237,7 +7683,7 @@
     </row>
     <row r="107" spans="1:8">
       <c r="A107" s="2" t="s">
-        <v>238</v>
+        <v>286</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -7249,7 +7695,7 @@
     </row>
     <row r="108" spans="1:8">
       <c r="A108" s="2" t="s">
-        <v>239</v>
+        <v>287</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -7261,7 +7707,7 @@
     </row>
     <row r="109" spans="1:8">
       <c r="A109" s="2" t="s">
-        <v>240</v>
+        <v>288</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -7273,7 +7719,7 @@
     </row>
     <row r="110" spans="1:8">
       <c r="A110" s="2" t="s">
-        <v>241</v>
+        <v>289</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -7285,7 +7731,7 @@
     </row>
     <row r="111" spans="1:8">
       <c r="A111" s="2" t="s">
-        <v>242</v>
+        <v>290</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -7297,7 +7743,7 @@
     </row>
     <row r="112" spans="1:8">
       <c r="A112" s="2" t="s">
-        <v>243</v>
+        <v>291</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -7309,7 +7755,7 @@
     </row>
     <row r="113" spans="1:8">
       <c r="A113" s="2" t="s">
-        <v>244</v>
+        <v>292</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -7321,7 +7767,7 @@
     </row>
     <row r="114" spans="1:8">
       <c r="A114" s="2" t="s">
-        <v>245</v>
+        <v>293</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -7333,7 +7779,7 @@
     </row>
     <row r="115" spans="1:8">
       <c r="A115" s="2" t="s">
-        <v>246</v>
+        <v>294</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -7345,7 +7791,7 @@
     </row>
     <row r="116" spans="1:8">
       <c r="A116" s="2" t="s">
-        <v>247</v>
+        <v>295</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -7357,7 +7803,7 @@
     </row>
     <row r="117" spans="1:8">
       <c r="A117" s="2" t="s">
-        <v>248</v>
+        <v>296</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -7369,7 +7815,7 @@
     </row>
     <row r="118" spans="1:8">
       <c r="A118" s="2" t="s">
-        <v>249</v>
+        <v>297</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -7381,7 +7827,7 @@
     </row>
     <row r="119" spans="1:8">
       <c r="A119" s="2" t="s">
-        <v>250</v>
+        <v>298</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -7393,7 +7839,7 @@
     </row>
     <row r="120" spans="1:8">
       <c r="A120" s="2" t="s">
-        <v>251</v>
+        <v>299</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -7405,7 +7851,7 @@
     </row>
     <row r="121" spans="1:8">
       <c r="A121" s="2" t="s">
-        <v>252</v>
+        <v>300</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -7417,7 +7863,7 @@
     </row>
     <row r="122" spans="1:8">
       <c r="A122" s="2" t="s">
-        <v>253</v>
+        <v>301</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -7429,7 +7875,7 @@
     </row>
     <row r="123" spans="1:8">
       <c r="A123" s="2" t="s">
-        <v>254</v>
+        <v>302</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -7441,7 +7887,7 @@
     </row>
     <row r="124" spans="1:8">
       <c r="A124" s="2" t="s">
-        <v>255</v>
+        <v>303</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -7453,7 +7899,7 @@
     </row>
     <row r="125" spans="1:8">
       <c r="A125" s="2" t="s">
-        <v>256</v>
+        <v>304</v>
       </c>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -7465,7 +7911,7 @@
     </row>
     <row r="126" spans="1:8">
       <c r="A126" s="2" t="s">
-        <v>257</v>
+        <v>305</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -7477,7 +7923,7 @@
     </row>
     <row r="127" spans="1:8">
       <c r="A127" s="2" t="s">
-        <v>258</v>
+        <v>306</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -7489,7 +7935,7 @@
     </row>
     <row r="128" spans="1:8">
       <c r="A128" s="2" t="s">
-        <v>259</v>
+        <v>307</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -7501,7 +7947,7 @@
     </row>
     <row r="129" spans="1:8">
       <c r="A129" s="2" t="s">
-        <v>260</v>
+        <v>308</v>
       </c>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -7513,7 +7959,7 @@
     </row>
     <row r="130" spans="1:8">
       <c r="A130" s="2" t="s">
-        <v>261</v>
+        <v>309</v>
       </c>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -7525,7 +7971,7 @@
     </row>
     <row r="131" spans="1:8">
       <c r="A131" s="2" t="s">
-        <v>262</v>
+        <v>310</v>
       </c>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -7537,7 +7983,7 @@
     </row>
     <row r="132" spans="1:8">
       <c r="A132" s="2" t="s">
-        <v>263</v>
+        <v>311</v>
       </c>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -7549,7 +7995,7 @@
     </row>
     <row r="133" spans="1:8">
       <c r="A133" s="2" t="s">
-        <v>264</v>
+        <v>312</v>
       </c>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
@@ -7561,7 +8007,7 @@
     </row>
     <row r="134" spans="1:8">
       <c r="A134" s="2" t="s">
-        <v>265</v>
+        <v>313</v>
       </c>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
@@ -7573,7 +8019,7 @@
     </row>
     <row r="135" spans="1:8">
       <c r="A135" s="2" t="s">
-        <v>266</v>
+        <v>314</v>
       </c>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
@@ -7585,7 +8031,7 @@
     </row>
     <row r="136" spans="1:8">
       <c r="A136" s="2" t="s">
-        <v>267</v>
+        <v>315</v>
       </c>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
@@ -7597,7 +8043,7 @@
     </row>
     <row r="137" spans="1:8">
       <c r="A137" s="2" t="s">
-        <v>268</v>
+        <v>316</v>
       </c>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
@@ -7609,7 +8055,7 @@
     </row>
     <row r="138" spans="1:8">
       <c r="A138" s="2" t="s">
-        <v>269</v>
+        <v>317</v>
       </c>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
@@ -7621,7 +8067,7 @@
     </row>
     <row r="139" spans="1:8">
       <c r="A139" s="2" t="s">
-        <v>270</v>
+        <v>318</v>
       </c>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
@@ -7633,7 +8079,7 @@
     </row>
     <row r="140" spans="1:8">
       <c r="A140" s="2" t="s">
-        <v>271</v>
+        <v>319</v>
       </c>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
@@ -7645,7 +8091,7 @@
     </row>
     <row r="141" spans="1:8">
       <c r="A141" s="2" t="s">
-        <v>272</v>
+        <v>320</v>
       </c>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
@@ -7657,7 +8103,7 @@
     </row>
     <row r="142" spans="1:8">
       <c r="A142" s="2" t="s">
-        <v>273</v>
+        <v>321</v>
       </c>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
@@ -7669,7 +8115,7 @@
     </row>
     <row r="143" spans="1:8">
       <c r="A143" s="2" t="s">
-        <v>274</v>
+        <v>322</v>
       </c>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
@@ -7681,7 +8127,7 @@
     </row>
     <row r="144" spans="1:8">
       <c r="A144" s="2" t="s">
-        <v>275</v>
+        <v>323</v>
       </c>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
@@ -7693,7 +8139,7 @@
     </row>
     <row r="145" spans="1:8">
       <c r="A145" s="2" t="s">
-        <v>276</v>
+        <v>324</v>
       </c>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
@@ -7705,7 +8151,7 @@
     </row>
     <row r="146" spans="1:8">
       <c r="A146" s="2" t="s">
-        <v>277</v>
+        <v>325</v>
       </c>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
@@ -7717,7 +8163,7 @@
     </row>
     <row r="147" spans="1:8">
       <c r="A147" s="2" t="s">
-        <v>278</v>
+        <v>326</v>
       </c>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
@@ -7729,7 +8175,7 @@
     </row>
     <row r="148" spans="1:8">
       <c r="A148" s="2" t="s">
-        <v>279</v>
+        <v>327</v>
       </c>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
@@ -7741,7 +8187,7 @@
     </row>
     <row r="149" spans="1:8">
       <c r="A149" s="2" t="s">
-        <v>280</v>
+        <v>328</v>
       </c>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
@@ -7753,7 +8199,7 @@
     </row>
     <row r="150" spans="1:8">
       <c r="A150" s="2" t="s">
-        <v>281</v>
+        <v>329</v>
       </c>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
@@ -7765,7 +8211,7 @@
     </row>
     <row r="151" spans="1:8">
       <c r="A151" s="2" t="s">
-        <v>282</v>
+        <v>330</v>
       </c>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
@@ -7777,7 +8223,7 @@
     </row>
     <row r="152" spans="1:8">
       <c r="A152" s="2" t="s">
-        <v>283</v>
+        <v>331</v>
       </c>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
@@ -7812,7 +8258,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>134</v>
+        <v>182</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -7848,247 +8294,337 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
-        <v>135</v>
+        <v>183</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>27</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
-        <v>136</v>
+        <v>184</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>40</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
-        <v>137</v>
+        <v>185</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>40</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>62</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="2" t="s">
-        <v>138</v>
+        <v>186</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="2" t="s">
-        <v>139</v>
+        <v>187</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="2" t="s">
-        <v>140</v>
+        <v>188</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>122</v>
+        <v>84</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>123</v>
+        <v>85</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>124</v>
+        <v>86</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>125</v>
+        <v>87</v>
       </c>
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
+        <v>64</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>96</v>
+      </c>
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
+        <v>189</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>104</v>
+      </c>
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
+        <v>190</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>112</v>
+      </c>
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
+        <v>191</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>128</v>
+      </c>
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
+        <v>192</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>157</v>
+      </c>
       <c r="H13" s="2"/>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
+        <v>193</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>165</v>
+      </c>
       <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
+        <v>194</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>177</v>
+      </c>
       <c r="H15" s="2"/>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
+        <v>195</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>181</v>
+      </c>
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="2" t="s">
-        <v>148</v>
+        <v>196</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -8100,7 +8636,7 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="2" t="s">
-        <v>149</v>
+        <v>197</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -8112,7 +8648,7 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="2" t="s">
-        <v>150</v>
+        <v>198</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -8124,7 +8660,7 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="2" t="s">
-        <v>151</v>
+        <v>199</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -8136,7 +8672,7 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="2" t="s">
-        <v>152</v>
+        <v>200</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -8148,7 +8684,7 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="2" t="s">
-        <v>153</v>
+        <v>201</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -8160,7 +8696,7 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="2" t="s">
-        <v>154</v>
+        <v>202</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -8172,7 +8708,7 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="2" t="s">
-        <v>155</v>
+        <v>203</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -8184,7 +8720,7 @@
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="2" t="s">
-        <v>156</v>
+        <v>204</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -8196,7 +8732,7 @@
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="2" t="s">
-        <v>157</v>
+        <v>205</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -8208,7 +8744,7 @@
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="2" t="s">
-        <v>158</v>
+        <v>206</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -8220,7 +8756,7 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="2" t="s">
-        <v>159</v>
+        <v>207</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -8232,7 +8768,7 @@
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="2" t="s">
-        <v>160</v>
+        <v>208</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -8244,7 +8780,7 @@
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="2" t="s">
-        <v>161</v>
+        <v>209</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -8256,7 +8792,7 @@
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="2" t="s">
-        <v>162</v>
+        <v>210</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -8268,7 +8804,7 @@
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="2" t="s">
-        <v>163</v>
+        <v>211</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -8280,7 +8816,7 @@
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="2" t="s">
-        <v>164</v>
+        <v>212</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -8292,7 +8828,7 @@
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="2" t="s">
-        <v>165</v>
+        <v>213</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -8304,7 +8840,7 @@
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="2" t="s">
-        <v>166</v>
+        <v>214</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -8316,7 +8852,7 @@
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="2" t="s">
-        <v>167</v>
+        <v>215</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -8328,7 +8864,7 @@
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="2" t="s">
-        <v>168</v>
+        <v>216</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -8340,7 +8876,7 @@
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="2" t="s">
-        <v>169</v>
+        <v>217</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -8352,7 +8888,7 @@
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="2" t="s">
-        <v>170</v>
+        <v>218</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -8364,7 +8900,7 @@
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="2" t="s">
-        <v>171</v>
+        <v>219</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -8376,7 +8912,7 @@
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="2" t="s">
-        <v>172</v>
+        <v>220</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -8388,7 +8924,7 @@
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="2" t="s">
-        <v>173</v>
+        <v>221</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -8400,7 +8936,7 @@
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="2" t="s">
-        <v>174</v>
+        <v>222</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -8412,7 +8948,7 @@
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="2" t="s">
-        <v>175</v>
+        <v>223</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -8424,7 +8960,7 @@
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="2" t="s">
-        <v>176</v>
+        <v>224</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -8436,7 +8972,7 @@
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="2" t="s">
-        <v>177</v>
+        <v>225</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -8448,7 +8984,7 @@
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="2" t="s">
-        <v>178</v>
+        <v>226</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -8460,7 +8996,7 @@
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="2" t="s">
-        <v>179</v>
+        <v>227</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -8472,7 +9008,7 @@
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="2" t="s">
-        <v>180</v>
+        <v>228</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -8484,7 +9020,7 @@
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="2" t="s">
-        <v>181</v>
+        <v>229</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -8496,7 +9032,7 @@
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="2" t="s">
-        <v>182</v>
+        <v>230</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -8508,7 +9044,7 @@
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="2" t="s">
-        <v>183</v>
+        <v>231</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -8520,7 +9056,7 @@
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="2" t="s">
-        <v>184</v>
+        <v>232</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -8532,7 +9068,7 @@
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="2" t="s">
-        <v>185</v>
+        <v>233</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -8544,7 +9080,7 @@
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="2" t="s">
-        <v>186</v>
+        <v>234</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -8556,7 +9092,7 @@
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="2" t="s">
-        <v>187</v>
+        <v>235</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -8568,7 +9104,7 @@
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="2" t="s">
-        <v>188</v>
+        <v>236</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -8580,7 +9116,7 @@
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="2" t="s">
-        <v>189</v>
+        <v>237</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -8592,7 +9128,7 @@
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="2" t="s">
-        <v>190</v>
+        <v>238</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -8604,7 +9140,7 @@
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="2" t="s">
-        <v>191</v>
+        <v>239</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -8616,7 +9152,7 @@
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="2" t="s">
-        <v>192</v>
+        <v>240</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -8628,7 +9164,7 @@
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="2" t="s">
-        <v>193</v>
+        <v>241</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -8640,7 +9176,7 @@
     </row>
     <row r="63" spans="1:8">
       <c r="A63" s="2" t="s">
-        <v>194</v>
+        <v>242</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -8652,7 +9188,7 @@
     </row>
     <row r="64" spans="1:8">
       <c r="A64" s="2" t="s">
-        <v>195</v>
+        <v>243</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -8664,7 +9200,7 @@
     </row>
     <row r="65" spans="1:8">
       <c r="A65" s="2" t="s">
-        <v>196</v>
+        <v>244</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -8676,7 +9212,7 @@
     </row>
     <row r="66" spans="1:8">
       <c r="A66" s="2" t="s">
-        <v>197</v>
+        <v>245</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -8688,7 +9224,7 @@
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="2" t="s">
-        <v>198</v>
+        <v>246</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -8700,7 +9236,7 @@
     </row>
     <row r="68" spans="1:8">
       <c r="A68" s="2" t="s">
-        <v>199</v>
+        <v>247</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -8712,7 +9248,7 @@
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="2" t="s">
-        <v>200</v>
+        <v>248</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -8724,7 +9260,7 @@
     </row>
     <row r="70" spans="1:8">
       <c r="A70" s="2" t="s">
-        <v>201</v>
+        <v>249</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -8736,7 +9272,7 @@
     </row>
     <row r="71" spans="1:8">
       <c r="A71" s="2" t="s">
-        <v>202</v>
+        <v>250</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -8748,7 +9284,7 @@
     </row>
     <row r="72" spans="1:8">
       <c r="A72" s="2" t="s">
-        <v>203</v>
+        <v>251</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -8760,7 +9296,7 @@
     </row>
     <row r="73" spans="1:8">
       <c r="A73" s="2" t="s">
-        <v>204</v>
+        <v>252</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -8772,7 +9308,7 @@
     </row>
     <row r="74" spans="1:8">
       <c r="A74" s="2" t="s">
-        <v>205</v>
+        <v>253</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -8784,7 +9320,7 @@
     </row>
     <row r="75" spans="1:8">
       <c r="A75" s="2" t="s">
-        <v>206</v>
+        <v>254</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -8796,7 +9332,7 @@
     </row>
     <row r="76" spans="1:8">
       <c r="A76" s="2" t="s">
-        <v>207</v>
+        <v>255</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -8808,7 +9344,7 @@
     </row>
     <row r="77" spans="1:8">
       <c r="A77" s="2" t="s">
-        <v>208</v>
+        <v>256</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -8820,7 +9356,7 @@
     </row>
     <row r="78" spans="1:8">
       <c r="A78" s="2" t="s">
-        <v>209</v>
+        <v>257</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -8832,7 +9368,7 @@
     </row>
     <row r="79" spans="1:8">
       <c r="A79" s="2" t="s">
-        <v>210</v>
+        <v>258</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -8844,7 +9380,7 @@
     </row>
     <row r="80" spans="1:8">
       <c r="A80" s="2" t="s">
-        <v>211</v>
+        <v>259</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -8856,7 +9392,7 @@
     </row>
     <row r="81" spans="1:8">
       <c r="A81" s="2" t="s">
-        <v>212</v>
+        <v>260</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -8868,7 +9404,7 @@
     </row>
     <row r="82" spans="1:8">
       <c r="A82" s="2" t="s">
-        <v>213</v>
+        <v>261</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -8880,7 +9416,7 @@
     </row>
     <row r="83" spans="1:8">
       <c r="A83" s="2" t="s">
-        <v>214</v>
+        <v>262</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -8892,7 +9428,7 @@
     </row>
     <row r="84" spans="1:8">
       <c r="A84" s="2" t="s">
-        <v>215</v>
+        <v>263</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -8904,7 +9440,7 @@
     </row>
     <row r="85" spans="1:8">
       <c r="A85" s="2" t="s">
-        <v>216</v>
+        <v>264</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -8916,7 +9452,7 @@
     </row>
     <row r="86" spans="1:8">
       <c r="A86" s="2" t="s">
-        <v>217</v>
+        <v>265</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -8928,7 +9464,7 @@
     </row>
     <row r="87" spans="1:8">
       <c r="A87" s="2" t="s">
-        <v>218</v>
+        <v>266</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -8940,7 +9476,7 @@
     </row>
     <row r="88" spans="1:8">
       <c r="A88" s="2" t="s">
-        <v>219</v>
+        <v>267</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -8952,7 +9488,7 @@
     </row>
     <row r="89" spans="1:8">
       <c r="A89" s="2" t="s">
-        <v>220</v>
+        <v>268</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -8964,7 +9500,7 @@
     </row>
     <row r="90" spans="1:8">
       <c r="A90" s="2" t="s">
-        <v>221</v>
+        <v>269</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -8976,7 +9512,7 @@
     </row>
     <row r="91" spans="1:8">
       <c r="A91" s="2" t="s">
-        <v>222</v>
+        <v>270</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -8988,7 +9524,7 @@
     </row>
     <row r="92" spans="1:8">
       <c r="A92" s="2" t="s">
-        <v>223</v>
+        <v>271</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -9000,7 +9536,7 @@
     </row>
     <row r="93" spans="1:8">
       <c r="A93" s="2" t="s">
-        <v>224</v>
+        <v>272</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -9012,7 +9548,7 @@
     </row>
     <row r="94" spans="1:8">
       <c r="A94" s="2" t="s">
-        <v>225</v>
+        <v>273</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -9024,7 +9560,7 @@
     </row>
     <row r="95" spans="1:8">
       <c r="A95" s="2" t="s">
-        <v>226</v>
+        <v>274</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -9036,7 +9572,7 @@
     </row>
     <row r="96" spans="1:8">
       <c r="A96" s="2" t="s">
-        <v>227</v>
+        <v>275</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -9048,7 +9584,7 @@
     </row>
     <row r="97" spans="1:8">
       <c r="A97" s="2" t="s">
-        <v>228</v>
+        <v>276</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -9060,7 +9596,7 @@
     </row>
     <row r="98" spans="1:8">
       <c r="A98" s="2" t="s">
-        <v>229</v>
+        <v>277</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -9072,7 +9608,7 @@
     </row>
     <row r="99" spans="1:8">
       <c r="A99" s="2" t="s">
-        <v>230</v>
+        <v>278</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -9084,7 +9620,7 @@
     </row>
     <row r="100" spans="1:8">
       <c r="A100" s="2" t="s">
-        <v>231</v>
+        <v>279</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -9096,7 +9632,7 @@
     </row>
     <row r="101" spans="1:8">
       <c r="A101" s="2" t="s">
-        <v>232</v>
+        <v>280</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -9108,7 +9644,7 @@
     </row>
     <row r="102" spans="1:8">
       <c r="A102" s="2" t="s">
-        <v>233</v>
+        <v>281</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -9120,7 +9656,7 @@
     </row>
     <row r="103" spans="1:8">
       <c r="A103" s="2" t="s">
-        <v>234</v>
+        <v>282</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -9132,7 +9668,7 @@
     </row>
     <row r="104" spans="1:8">
       <c r="A104" s="2" t="s">
-        <v>235</v>
+        <v>283</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -9144,7 +9680,7 @@
     </row>
     <row r="105" spans="1:8">
       <c r="A105" s="2" t="s">
-        <v>236</v>
+        <v>284</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -9156,7 +9692,7 @@
     </row>
     <row r="106" spans="1:8">
       <c r="A106" s="2" t="s">
-        <v>237</v>
+        <v>285</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -9168,7 +9704,7 @@
     </row>
     <row r="107" spans="1:8">
       <c r="A107" s="2" t="s">
-        <v>238</v>
+        <v>286</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -9180,7 +9716,7 @@
     </row>
     <row r="108" spans="1:8">
       <c r="A108" s="2" t="s">
-        <v>239</v>
+        <v>287</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -9192,7 +9728,7 @@
     </row>
     <row r="109" spans="1:8">
       <c r="A109" s="2" t="s">
-        <v>240</v>
+        <v>288</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -9204,7 +9740,7 @@
     </row>
     <row r="110" spans="1:8">
       <c r="A110" s="2" t="s">
-        <v>241</v>
+        <v>289</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -9216,7 +9752,7 @@
     </row>
     <row r="111" spans="1:8">
       <c r="A111" s="2" t="s">
-        <v>242</v>
+        <v>290</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -9228,7 +9764,7 @@
     </row>
     <row r="112" spans="1:8">
       <c r="A112" s="2" t="s">
-        <v>243</v>
+        <v>291</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -9240,7 +9776,7 @@
     </row>
     <row r="113" spans="1:8">
       <c r="A113" s="2" t="s">
-        <v>244</v>
+        <v>292</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -9252,7 +9788,7 @@
     </row>
     <row r="114" spans="1:8">
       <c r="A114" s="2" t="s">
-        <v>245</v>
+        <v>293</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -9264,7 +9800,7 @@
     </row>
     <row r="115" spans="1:8">
       <c r="A115" s="2" t="s">
-        <v>246</v>
+        <v>294</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -9276,7 +9812,7 @@
     </row>
     <row r="116" spans="1:8">
       <c r="A116" s="2" t="s">
-        <v>247</v>
+        <v>295</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -9288,7 +9824,7 @@
     </row>
     <row r="117" spans="1:8">
       <c r="A117" s="2" t="s">
-        <v>248</v>
+        <v>296</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -9300,7 +9836,7 @@
     </row>
     <row r="118" spans="1:8">
       <c r="A118" s="2" t="s">
-        <v>249</v>
+        <v>297</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -9312,7 +9848,7 @@
     </row>
     <row r="119" spans="1:8">
       <c r="A119" s="2" t="s">
-        <v>250</v>
+        <v>298</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -9324,7 +9860,7 @@
     </row>
     <row r="120" spans="1:8">
       <c r="A120" s="2" t="s">
-        <v>251</v>
+        <v>299</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -9336,7 +9872,7 @@
     </row>
     <row r="121" spans="1:8">
       <c r="A121" s="2" t="s">
-        <v>252</v>
+        <v>300</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -9348,7 +9884,7 @@
     </row>
     <row r="122" spans="1:8">
       <c r="A122" s="2" t="s">
-        <v>253</v>
+        <v>301</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -9360,7 +9896,7 @@
     </row>
     <row r="123" spans="1:8">
       <c r="A123" s="2" t="s">
-        <v>254</v>
+        <v>302</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -9372,7 +9908,7 @@
     </row>
     <row r="124" spans="1:8">
       <c r="A124" s="2" t="s">
-        <v>255</v>
+        <v>303</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -9384,7 +9920,7 @@
     </row>
     <row r="125" spans="1:8">
       <c r="A125" s="2" t="s">
-        <v>256</v>
+        <v>304</v>
       </c>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -9396,7 +9932,7 @@
     </row>
     <row r="126" spans="1:8">
       <c r="A126" s="2" t="s">
-        <v>257</v>
+        <v>305</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -9408,7 +9944,7 @@
     </row>
     <row r="127" spans="1:8">
       <c r="A127" s="2" t="s">
-        <v>258</v>
+        <v>306</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -9420,7 +9956,7 @@
     </row>
     <row r="128" spans="1:8">
       <c r="A128" s="2" t="s">
-        <v>259</v>
+        <v>307</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -9432,7 +9968,7 @@
     </row>
     <row r="129" spans="1:8">
       <c r="A129" s="2" t="s">
-        <v>260</v>
+        <v>308</v>
       </c>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -9444,7 +9980,7 @@
     </row>
     <row r="130" spans="1:8">
       <c r="A130" s="2" t="s">
-        <v>261</v>
+        <v>309</v>
       </c>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -9456,7 +9992,7 @@
     </row>
     <row r="131" spans="1:8">
       <c r="A131" s="2" t="s">
-        <v>262</v>
+        <v>310</v>
       </c>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -9468,7 +10004,7 @@
     </row>
     <row r="132" spans="1:8">
       <c r="A132" s="2" t="s">
-        <v>263</v>
+        <v>311</v>
       </c>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -9480,7 +10016,7 @@
     </row>
     <row r="133" spans="1:8">
       <c r="A133" s="2" t="s">
-        <v>264</v>
+        <v>312</v>
       </c>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
@@ -9492,7 +10028,7 @@
     </row>
     <row r="134" spans="1:8">
       <c r="A134" s="2" t="s">
-        <v>265</v>
+        <v>313</v>
       </c>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
@@ -9504,7 +10040,7 @@
     </row>
     <row r="135" spans="1:8">
       <c r="A135" s="2" t="s">
-        <v>266</v>
+        <v>314</v>
       </c>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
@@ -9516,7 +10052,7 @@
     </row>
     <row r="136" spans="1:8">
       <c r="A136" s="2" t="s">
-        <v>267</v>
+        <v>315</v>
       </c>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
@@ -9528,7 +10064,7 @@
     </row>
     <row r="137" spans="1:8">
       <c r="A137" s="2" t="s">
-        <v>268</v>
+        <v>316</v>
       </c>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
@@ -9540,7 +10076,7 @@
     </row>
     <row r="138" spans="1:8">
       <c r="A138" s="2" t="s">
-        <v>269</v>
+        <v>317</v>
       </c>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
@@ -9552,7 +10088,7 @@
     </row>
     <row r="139" spans="1:8">
       <c r="A139" s="2" t="s">
-        <v>270</v>
+        <v>318</v>
       </c>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
@@ -9564,7 +10100,7 @@
     </row>
     <row r="140" spans="1:8">
       <c r="A140" s="2" t="s">
-        <v>271</v>
+        <v>319</v>
       </c>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
@@ -9576,7 +10112,7 @@
     </row>
     <row r="141" spans="1:8">
       <c r="A141" s="2" t="s">
-        <v>272</v>
+        <v>320</v>
       </c>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
@@ -9588,7 +10124,7 @@
     </row>
     <row r="142" spans="1:8">
       <c r="A142" s="2" t="s">
-        <v>273</v>
+        <v>321</v>
       </c>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
@@ -9600,7 +10136,7 @@
     </row>
     <row r="143" spans="1:8">
       <c r="A143" s="2" t="s">
-        <v>274</v>
+        <v>322</v>
       </c>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
@@ -9612,7 +10148,7 @@
     </row>
     <row r="144" spans="1:8">
       <c r="A144" s="2" t="s">
-        <v>275</v>
+        <v>323</v>
       </c>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
@@ -9624,7 +10160,7 @@
     </row>
     <row r="145" spans="1:8">
       <c r="A145" s="2" t="s">
-        <v>276</v>
+        <v>324</v>
       </c>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
@@ -9636,7 +10172,7 @@
     </row>
     <row r="146" spans="1:8">
       <c r="A146" s="2" t="s">
-        <v>277</v>
+        <v>325</v>
       </c>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
@@ -9648,7 +10184,7 @@
     </row>
     <row r="147" spans="1:8">
       <c r="A147" s="2" t="s">
-        <v>278</v>
+        <v>326</v>
       </c>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
@@ -9660,7 +10196,7 @@
     </row>
     <row r="148" spans="1:8">
       <c r="A148" s="2" t="s">
-        <v>279</v>
+        <v>327</v>
       </c>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
@@ -9672,7 +10208,7 @@
     </row>
     <row r="149" spans="1:8">
       <c r="A149" s="2" t="s">
-        <v>280</v>
+        <v>328</v>
       </c>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
@@ -9684,7 +10220,7 @@
     </row>
     <row r="150" spans="1:8">
       <c r="A150" s="2" t="s">
-        <v>281</v>
+        <v>329</v>
       </c>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
@@ -9696,7 +10232,7 @@
     </row>
     <row r="151" spans="1:8">
       <c r="A151" s="2" t="s">
-        <v>282</v>
+        <v>330</v>
       </c>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
@@ -9708,7 +10244,7 @@
     </row>
     <row r="152" spans="1:8">
       <c r="A152" s="2" t="s">
-        <v>283</v>
+        <v>331</v>
       </c>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
